--- a/NEON Netherlands integral model Wind op Zee Groningen/outputNetworkLinesAny.xlsx
+++ b/NEON Netherlands integral model Wind op Zee Groningen/outputNetworkLinesAny.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403311" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403991" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -525,13 +525,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>23.954476448582398</v>
+        <v>25.695460482492745</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>43479.708333333336</v>
+        <v>43891.75</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -547,13 +547,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>42.68755678875</v>
+        <v>43.47077359912172</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>43479.708333333336</v>
+        <v>43891.75</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -569,13 +569,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>51.41080015101572</v>
+        <v>50.81786384063931</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>43478.75</v>
+        <v>43887.75</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -591,13 +591,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>70.32655146004447</v>
+        <v>72.00603262413946</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>43480.708333333336</v>
+        <v>43888.75</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -613,13 +613,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>22.915108917684964</v>
+        <v>19.819419563579295</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>43488.708333333336</v>
+        <v>43887.75</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -635,13 +635,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>46.347779563971876</v>
+        <v>39.27332092165748</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>43488.708333333336</v>
+        <v>43886.75</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -657,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>91.34401108825533</v>
+        <v>76.43344517466275</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>43488.708333333336</v>
+        <v>43886.75</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -679,13 +679,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>28.65187524520318</v>
+        <v>25.56835930787495</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>43481.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -701,13 +701,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>42.35270423472656</v>
+        <v>39.65475740795289</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>43475.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -723,13 +723,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>19.45021412815251</v>
+        <v>21.57040866249222</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>43479.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -745,13 +745,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>32.64640410485172</v>
+        <v>34.476927889974846</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>43483.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -767,13 +767,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>14.042192819629829</v>
+        <v>22.925337859143387</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>43478.75</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -789,13 +789,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>24.075505125009286</v>
+        <v>40.9919532057077</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>43479.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -811,13 +811,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>90.59890578843913</v>
+        <v>75.24808181642885</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>43488.708333333336</v>
+        <v>43886.75</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -833,13 +833,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>49.86638273807131</v>
+        <v>44.68389957964933</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>43488.708333333336</v>
+        <v>43886.75</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -855,13 +855,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>12.562344005003137</v>
+        <v>16.612909645499265</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>43479.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -877,13 +877,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>56.34137521062424</v>
+        <v>64.75215576076656</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>43488.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -899,13 +899,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>25.647594680210428</v>
+        <v>26.398691753670462</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>43488.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -921,13 +921,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>48.89347431573292</v>
+        <v>65.44558009728696</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>43479.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -943,13 +943,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.562344005003137</v>
+        <v>16.612909645499265</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>43479.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -965,13 +965,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>18.685078293167845</v>
+        <v>19.151088299010592</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>43483.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -987,13 +987,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>3.7481247041793244</v>
+        <v>3.747973579972218</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>43478.75</v>
+        <v>43887.75</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1009,13 +1009,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>3.7861954711223325</v>
+        <v>3.7897051102919486</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>43470.708333333336</v>
+        <v>43895.75</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1031,13 +1031,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>3.7045776415231604</v>
+        <v>3.7070604290001516</v>
       </c>
       <c r="C25" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>43478.75</v>
+        <v>43895.75</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1053,13 +1053,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>86.04168942460696</v>
+        <v>84.28217347032763</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>43478.75</v>
+        <v>43895.75</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1075,13 +1075,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>166.80258078111527</v>
+        <v>150.0410410658921</v>
       </c>
       <c r="C27" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>43476.708333333336</v>
+        <v>43894.75</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1097,13 +1097,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>47.117565610803716</v>
+        <v>42.39860072149232</v>
       </c>
       <c r="C28" t="n">
         <v>0.0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>43476.708333333336</v>
+        <v>43894.75</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1119,13 +1119,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>175.67587629246043</v>
+        <v>151.5985742939241</v>
       </c>
       <c r="C29" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>43488.708333333336</v>
+        <v>43886.75</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1141,13 +1141,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>293.9795396848175</v>
+        <v>235.0398900427924</v>
       </c>
       <c r="C30" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>43480.708333333336</v>
+        <v>43886.75</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1163,13 +1163,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>49.1939451216793</v>
+        <v>41.561656619844584</v>
       </c>
       <c r="C31" t="n">
         <v>0.0</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>43480.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1185,13 +1185,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>70.27590274955912</v>
+        <v>74.95043268249051</v>
       </c>
       <c r="C32" t="n">
         <v>0.0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>43479.708333333336</v>
+        <v>43891.75</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1207,13 +1207,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>36.24103975775827</v>
+        <v>39.92806470482738</v>
       </c>
       <c r="C33" t="n">
         <v>0.0</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>43479.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1229,13 +1229,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>49.7208929804899</v>
+        <v>63.68896543031577</v>
       </c>
       <c r="C34" t="n">
         <v>0.0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>43483.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1251,13 +1251,13 @@
         <v>3</v>
       </c>
       <c r="B35" t="n">
-        <v>28.544932180600725</v>
+        <v>42.79256629881464</v>
       </c>
       <c r="C35" t="n">
         <v>0.0</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>43483.708333333336</v>
+        <v>43898.791666666664</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
